--- a/Data/individuals.xlsx
+++ b/Data/individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\05. Github\Leporid-brain-evo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406AEE43-683C-4D43-B602-EAE560A3461C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A3C588-AAE4-4CF0-BC07-0957F03C0942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,64 +45,64 @@
     <t>Mass</t>
   </si>
   <si>
-    <t>Brachylagus idahoensis</t>
-  </si>
-  <si>
-    <t>Bunolagus monticularis</t>
-  </si>
-  <si>
-    <t>Caprolagus hispidus</t>
-  </si>
-  <si>
-    <t>Lepus americanus</t>
-  </si>
-  <si>
-    <t>Lepus californicus</t>
-  </si>
-  <si>
-    <t>Lepus capensis</t>
-  </si>
-  <si>
-    <t>Lepus saxatilis</t>
-  </si>
-  <si>
-    <t>Lepus timidus</t>
-  </si>
-  <si>
-    <t>Oryctolagus cuniculus</t>
-  </si>
-  <si>
-    <t>Pentalagus furnessi</t>
-  </si>
-  <si>
-    <t>Poelagus marjorita</t>
-  </si>
-  <si>
-    <t>Pronolagus randensis</t>
-  </si>
-  <si>
-    <t>Pronolagus rupestris</t>
-  </si>
-  <si>
-    <t>Romerolagus diazi</t>
-  </si>
-  <si>
-    <t>Sylvilagus aquaticus</t>
-  </si>
-  <si>
-    <t>Sylvilagus audubonii</t>
-  </si>
-  <si>
-    <t>Sylvilagus obscurus</t>
-  </si>
-  <si>
-    <t>Sylvilagus palustris</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Brachylagus idahoensis (9)</t>
+  </si>
+  <si>
+    <t>Bunolagus monticularis (4)</t>
+  </si>
+  <si>
+    <t>Caprolagus hispidus (1)</t>
+  </si>
+  <si>
+    <t>Lepus americanus (6)</t>
+  </si>
+  <si>
+    <t>Lepus californicus (10)</t>
+  </si>
+  <si>
+    <t>Lepus capensis (4)</t>
+  </si>
+  <si>
+    <t>Lepus saxatilis (2)</t>
+  </si>
+  <si>
+    <t>Lepus timidus (3)</t>
+  </si>
+  <si>
+    <t>Oryctolagus cuniculus (3)</t>
+  </si>
+  <si>
+    <t>Pentalagus furnessi (2)</t>
+  </si>
+  <si>
+    <t>Poelagus marjorita (3)</t>
+  </si>
+  <si>
+    <t>Pronolagus randensis (2)</t>
+  </si>
+  <si>
+    <t>Pronolagus rupestris (2)</t>
+  </si>
+  <si>
+    <t>Romerolagus diazi (2)</t>
+  </si>
+  <si>
+    <t>Sylvilagus aquaticus (2)</t>
+  </si>
+  <si>
+    <t>Sylvilagus audubonii (3)</t>
+  </si>
+  <si>
+    <t>Sylvilagus obscurus (1)</t>
+  </si>
+  <si>
+    <t>Sylvilagus palustris (1)</t>
   </si>
 </sst>
 </file>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,7 +490,7 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>4696.3500000000004</v>
@@ -505,12 +505,12 @@
         <v>431.19</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>3999.99</v>
@@ -525,12 +525,12 @@
         <v>431.19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>4364.8599999999997</v>
@@ -545,12 +545,12 @@
         <v>431.19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>4115.03</v>
@@ -565,12 +565,12 @@
         <v>431.19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>4294.96</v>
@@ -585,12 +585,12 @@
         <v>431.19</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>4729.78</v>
@@ -605,12 +605,12 @@
         <v>431.19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>4888.76</v>
@@ -625,12 +625,12 @@
         <v>431.19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>4502.17</v>
@@ -645,12 +645,12 @@
         <v>431.19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>5301.31</v>
@@ -665,12 +665,12 @@
         <v>431.19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>4220.5999999999995</v>
@@ -685,12 +685,12 @@
         <v>431.19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>12112.41</v>
@@ -705,12 +705,12 @@
         <v>1750.01</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>12537.95</v>
@@ -725,12 +725,12 @@
         <v>1750.01</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>11924.800000000001</v>
@@ -745,12 +745,12 @@
         <v>1750.01</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>9867.42</v>
@@ -765,12 +765,12 @@
         <v>1750.01</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>12417.79</v>
@@ -785,12 +785,12 @@
         <v>2496.9899999999998</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>8907.76</v>
@@ -805,12 +805,12 @@
         <v>1568.42</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>9621.56</v>
@@ -825,12 +825,12 @@
         <v>1568.42</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>7958.32</v>
@@ -845,12 +845,12 @@
         <v>1568.42</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>7654.36</v>
@@ -865,12 +865,12 @@
         <v>1568.42</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>10063.040000000001</v>
@@ -885,12 +885,12 @@
         <v>1568.42</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>10053.52</v>
@@ -905,12 +905,12 @@
         <v>1568.42</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>12373.06</v>
@@ -925,12 +925,12 @@
         <v>2422.48</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>12166.94</v>
@@ -945,12 +945,12 @@
         <v>2422.48</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>13039.75</v>
@@ -965,12 +965,12 @@
         <v>2422.48</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>12451.45</v>
@@ -985,12 +985,12 @@
         <v>2422.48</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>13124.87</v>
@@ -1005,12 +1005,12 @@
         <v>2422.48</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>15004.15</v>
@@ -1025,12 +1025,12 @@
         <v>2422.48</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>11284.33</v>
@@ -1045,12 +1045,12 @@
         <v>2422.48</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>12673.52</v>
@@ -1065,12 +1065,12 @@
         <v>2422.48</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>13786.15</v>
@@ -1085,12 +1085,12 @@
         <v>2422.48</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>13305.44</v>
@@ -1105,12 +1105,12 @@
         <v>2422.48</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B33">
         <v>10913.81</v>
@@ -1125,12 +1125,12 @@
         <v>2047.11</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <v>12690.27</v>
@@ -1145,12 +1145,12 @@
         <v>2047.11</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>11483.33</v>
@@ -1165,12 +1165,12 @@
         <v>2047.11</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>5311.81</v>
@@ -1185,12 +1185,12 @@
         <v>2047.11</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>9202.75</v>
@@ -1205,12 +1205,12 @@
         <v>2593.63</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>12580.65</v>
@@ -1225,12 +1225,12 @@
         <v>2593.63</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>17540.38</v>
@@ -1245,12 +1245,12 @@
         <v>3105.42</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B40">
         <v>17137.37</v>
@@ -1265,12 +1265,12 @@
         <v>3105.42</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B41">
         <v>16682.310000000001</v>
@@ -1285,12 +1285,12 @@
         <v>3105.42</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B42">
         <v>11963.25</v>
@@ -1305,12 +1305,12 @@
         <v>1590.57</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>10289.9</v>
@@ -1325,12 +1325,12 @@
         <v>1590.57</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>15517.41</v>
@@ -1345,12 +1345,12 @@
         <v>1590.57</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>12103.95</v>
@@ -1365,12 +1365,12 @@
         <v>2350</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>12711.33</v>
@@ -1385,12 +1385,12 @@
         <v>2350</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>10543.72</v>
@@ -1405,12 +1405,12 @@
         <v>2509.6999999999998</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B48">
         <v>11124.9</v>
@@ -1425,12 +1425,12 @@
         <v>2509.6999999999998</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B49">
         <v>12635.08</v>
@@ -1445,12 +1445,12 @@
         <v>2509.6999999999998</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B50">
         <v>11060.31</v>
@@ -1465,12 +1465,12 @@
         <v>2376.4699999999998</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B51">
         <v>12571.95</v>
@@ -1485,12 +1485,12 @@
         <v>2376.4699999999998</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B52">
         <v>9659.4500000000007</v>
@@ -1505,12 +1505,12 @@
         <v>2249.9899999999998</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B53">
         <v>10210.15</v>
@@ -1525,12 +1525,12 @@
         <v>2249.9899999999998</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B54">
         <v>5197.6099999999997</v>
@@ -1545,12 +1545,12 @@
         <v>465.58</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B55" s="3">
         <v>5193.8600000000006</v>
@@ -1565,12 +1565,12 @@
         <v>465.58</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B56" s="3">
         <v>9408.5499999999993</v>
@@ -1585,12 +1585,12 @@
         <v>2133.34</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B57" s="3">
         <v>10522.67</v>
@@ -1605,12 +1605,12 @@
         <v>2133.34</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B58" s="3">
         <v>6275.84</v>
@@ -1625,12 +1625,12 @@
         <v>880.88</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B59" s="3">
         <v>7159.07</v>
@@ -1645,12 +1645,12 @@
         <v>880.88</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B60" s="3">
         <v>7641.57</v>
@@ -1665,12 +1665,12 @@
         <v>880.88</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B61" s="3">
         <v>8590.43</v>
@@ -1685,12 +1685,12 @@
         <v>900</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B62">
         <v>8173.94</v>
@@ -1705,7 +1705,7 @@
         <v>1355.23</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
